--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H2">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I2">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J2">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>734.6426995343452</v>
+        <v>979.5310679256539</v>
       </c>
       <c r="R2">
-        <v>734.6426995343452</v>
+        <v>3918.124271702616</v>
       </c>
       <c r="S2">
-        <v>0.01844950593787555</v>
+        <v>0.02201562956292297</v>
       </c>
       <c r="T2">
-        <v>0.01844950593787555</v>
+        <v>0.01202388541601912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H3">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I3">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J3">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>1054.770187762601</v>
+        <v>1455.102680464769</v>
       </c>
       <c r="R3">
-        <v>1054.770187762601</v>
+        <v>8730.616082788614</v>
       </c>
       <c r="S3">
-        <v>0.02648905223526344</v>
+        <v>0.03270442626895839</v>
       </c>
       <c r="T3">
-        <v>0.02648905223526344</v>
+        <v>0.02679239353097058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H4">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I4">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J4">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>109.3895539228161</v>
+        <v>141.4321825811525</v>
       </c>
       <c r="R4">
-        <v>109.3895539228161</v>
+        <v>848.593095486915</v>
       </c>
       <c r="S4">
-        <v>0.002747162975851774</v>
+        <v>0.003178784871598039</v>
       </c>
       <c r="T4">
-        <v>0.002747162975851774</v>
+        <v>0.002604150720448121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H5">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I5">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J5">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>149.5941606574104</v>
+        <v>195.050327744841</v>
       </c>
       <c r="R5">
-        <v>149.5941606574104</v>
+        <v>1170.301966469046</v>
       </c>
       <c r="S5">
-        <v>0.00375684445931307</v>
+        <v>0.004383889293936167</v>
       </c>
       <c r="T5">
-        <v>0.00375684445931307</v>
+        <v>0.003591406441238494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H6">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I6">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J6">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>370.3388167302889</v>
+        <v>482.1875638645494</v>
       </c>
       <c r="R6">
-        <v>370.3388167302889</v>
+        <v>2893.125383187296</v>
       </c>
       <c r="S6">
-        <v>0.009300532357596567</v>
+        <v>0.01083749472936157</v>
       </c>
       <c r="T6">
-        <v>0.009300532357596567</v>
+        <v>0.008878383044880808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H7">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I7">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J7">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N7">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O7">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P7">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q7">
-        <v>313.2927292962146</v>
+        <v>407.0022155065807</v>
       </c>
       <c r="R7">
-        <v>313.2927292962146</v>
+        <v>1628.008862026323</v>
       </c>
       <c r="S7">
-        <v>0.007867901053270487</v>
+        <v>0.009147652689421297</v>
       </c>
       <c r="T7">
-        <v>0.007867901053270487</v>
+        <v>0.00499601101339287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H8">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I8">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J8">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N8">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O8">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P8">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q8">
-        <v>7615.348289666853</v>
+        <v>8289.654038546512</v>
       </c>
       <c r="R8">
-        <v>7615.348289666853</v>
+        <v>49737.92423127908</v>
       </c>
       <c r="S8">
-        <v>0.1912486349871235</v>
+        <v>0.1863156345861612</v>
       </c>
       <c r="T8">
-        <v>0.1912486349871235</v>
+        <v>0.1526350519575689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H9">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I9">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J9">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N9">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P9">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q9">
-        <v>10933.80816342541</v>
+        <v>12314.35960184384</v>
       </c>
       <c r="R9">
-        <v>10933.80816342541</v>
+        <v>110829.2364165946</v>
       </c>
       <c r="S9">
-        <v>0.2745870322574118</v>
+        <v>0.2767736401387879</v>
       </c>
       <c r="T9">
-        <v>0.2745870322574118</v>
+        <v>0.3401112233836698</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H10">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I10">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J10">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N10">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O10">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P10">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q10">
-        <v>1133.93837970698</v>
+        <v>1196.923611618703</v>
       </c>
       <c r="R10">
-        <v>1133.93837970698</v>
+        <v>10772.31250456832</v>
       </c>
       <c r="S10">
-        <v>0.02847724871267281</v>
+        <v>0.0269016754152746</v>
       </c>
       <c r="T10">
-        <v>0.02847724871267281</v>
+        <v>0.0330579231894027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H11">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I11">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J11">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N11">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O11">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P11">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q11">
-        <v>1550.701635269295</v>
+        <v>1650.687548414303</v>
       </c>
       <c r="R11">
-        <v>1550.701635269295</v>
+        <v>14856.18793572873</v>
       </c>
       <c r="S11">
-        <v>0.03894366478549162</v>
+        <v>0.03710032971897225</v>
       </c>
       <c r="T11">
-        <v>0.03894366478549162</v>
+        <v>0.04559046346440278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H12">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I12">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J12">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N12">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O12">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P12">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q12">
-        <v>3838.95338015593</v>
+        <v>4080.695566493303</v>
       </c>
       <c r="R12">
-        <v>3838.95338015593</v>
+        <v>36726.26009843973</v>
       </c>
       <c r="S12">
-        <v>0.0964098509755939</v>
+        <v>0.09171641910371485</v>
       </c>
       <c r="T12">
-        <v>0.0964098509755939</v>
+        <v>0.1127050375537632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H13">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I13">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J13">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N13">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O13">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P13">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q13">
-        <v>3247.610371304654</v>
+        <v>3444.410973728894</v>
       </c>
       <c r="R13">
-        <v>3247.610371304654</v>
+        <v>20666.46584237336</v>
       </c>
       <c r="S13">
-        <v>0.08155911284120815</v>
+        <v>0.07741548843434709</v>
       </c>
       <c r="T13">
-        <v>0.08155911284120815</v>
+        <v>0.06342096370894047</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H14">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I14">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J14">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N14">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O14">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P14">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q14">
-        <v>95.76551169149388</v>
+        <v>130.2455144208107</v>
       </c>
       <c r="R14">
-        <v>95.76551169149388</v>
+        <v>781.473086524864</v>
       </c>
       <c r="S14">
-        <v>0.002405014543417927</v>
+        <v>0.002927356866580312</v>
       </c>
       <c r="T14">
-        <v>0.002405014543417927</v>
+        <v>0.002398173767978674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H15">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I15">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J15">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N15">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P15">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q15">
-        <v>137.4962370306604</v>
+        <v>193.4809454830062</v>
       </c>
       <c r="R15">
-        <v>137.4962370306604</v>
+        <v>1741.328509347056</v>
       </c>
       <c r="S15">
-        <v>0.003453022323832564</v>
+        <v>0.004348616356047281</v>
       </c>
       <c r="T15">
-        <v>0.003453022323832564</v>
+        <v>0.005343764775214239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H16">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I16">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J16">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N16">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O16">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P16">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q16">
-        <v>14.25964841379737</v>
+        <v>18.80584289679556</v>
       </c>
       <c r="R16">
-        <v>14.25964841379737</v>
+        <v>169.25258607116</v>
       </c>
       <c r="S16">
-        <v>0.0003581107771834229</v>
+        <v>0.0004226741594946545</v>
       </c>
       <c r="T16">
-        <v>0.0003581107771834229</v>
+        <v>0.0005193999884031762</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H17">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I17">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J17">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N17">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O17">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P17">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q17">
-        <v>19.50058354965888</v>
+        <v>25.93529813084266</v>
       </c>
       <c r="R17">
-        <v>19.50058354965888</v>
+        <v>233.417683177584</v>
       </c>
       <c r="S17">
-        <v>0.000489729404810685</v>
+        <v>0.0005829135337807762</v>
       </c>
       <c r="T17">
-        <v>0.000489729404810685</v>
+        <v>0.0007163089483581704</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H18">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I18">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J18">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N18">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O18">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P18">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q18">
-        <v>48.27610252695424</v>
+        <v>64.11513565960976</v>
       </c>
       <c r="R18">
-        <v>48.27610252695424</v>
+        <v>577.0362209364879</v>
       </c>
       <c r="S18">
-        <v>0.001212385613840693</v>
+        <v>0.001441031450944909</v>
       </c>
       <c r="T18">
-        <v>0.001212385613840693</v>
+        <v>0.001770800750640314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H19">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I19">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J19">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N19">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O19">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P19">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q19">
-        <v>40.83976952237312</v>
+        <v>54.11794956266533</v>
       </c>
       <c r="R19">
-        <v>40.83976952237312</v>
+        <v>324.707697375992</v>
       </c>
       <c r="S19">
-        <v>0.001025632692984062</v>
+        <v>0.001216337867465189</v>
       </c>
       <c r="T19">
-        <v>0.001025632692984062</v>
+        <v>0.0009964584776306123</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H20">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I20">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J20">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N20">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O20">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P20">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q20">
-        <v>863.5467811680415</v>
+        <v>135.2173982322613</v>
       </c>
       <c r="R20">
-        <v>863.5467811680415</v>
+        <v>811.304389393568</v>
       </c>
       <c r="S20">
-        <v>0.02168674850630332</v>
+        <v>0.003039103349981387</v>
       </c>
       <c r="T20">
-        <v>0.02168674850630332</v>
+        <v>0.002489719656426973</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H21">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I21">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J21">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N21">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P21">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q21">
-        <v>1239.845439275099</v>
+        <v>200.8667259833858</v>
       </c>
       <c r="R21">
-        <v>1239.845439275099</v>
+        <v>1807.800533850472</v>
       </c>
       <c r="S21">
-        <v>0.03113695379870096</v>
+        <v>0.00451461681570984</v>
       </c>
       <c r="T21">
-        <v>0.03113695379870096</v>
+        <v>0.005547753201965332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H22">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I22">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J22">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N22">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O22">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P22">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q22">
-        <v>128.5835920554731</v>
+        <v>19.52372148382445</v>
       </c>
       <c r="R22">
-        <v>128.5835920554731</v>
+        <v>175.71349335442</v>
       </c>
       <c r="S22">
-        <v>0.003229193928755445</v>
+        <v>0.0004388089708964529</v>
       </c>
       <c r="T22">
-        <v>0.003229193928755445</v>
+        <v>0.0005392271310536781</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H23">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I23">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J23">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N23">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O23">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P23">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q23">
-        <v>175.8427001304493</v>
+        <v>26.92533060524533</v>
       </c>
       <c r="R23">
-        <v>175.8427001304493</v>
+        <v>242.327975447208</v>
       </c>
       <c r="S23">
-        <v>0.004416039174206922</v>
+        <v>0.0006051651896244962</v>
       </c>
       <c r="T23">
-        <v>0.004416039174206922</v>
+        <v>0.0007436527296789819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H24">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I24">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J24">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N24">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O24">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P24">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q24">
-        <v>435.3203173892985</v>
+        <v>66.56261345930622</v>
       </c>
       <c r="R24">
-        <v>435.3203173892985</v>
+        <v>599.0635211337559</v>
       </c>
       <c r="S24">
-        <v>0.01093245027227859</v>
+        <v>0.001496040185599647</v>
       </c>
       <c r="T24">
-        <v>0.01093245027227859</v>
+        <v>0.001838397823941185</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H25">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I25">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J25">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N25">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O25">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P25">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q25">
-        <v>368.2646381956574</v>
+        <v>56.18380310500066</v>
       </c>
       <c r="R25">
-        <v>368.2646381956574</v>
+        <v>337.102818630004</v>
       </c>
       <c r="S25">
-        <v>0.009248442315437089</v>
+        <v>0.001262769336367571</v>
       </c>
       <c r="T25">
-        <v>0.009248442315437089</v>
+        <v>0.001034496453800046</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H26">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I26">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J26">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N26">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O26">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P26">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q26">
-        <v>1398.057200025755</v>
+        <v>900.2692160211641</v>
       </c>
       <c r="R26">
-        <v>1398.057200025755</v>
+        <v>5401.615296126985</v>
       </c>
       <c r="S26">
-        <v>0.0351102170207559</v>
+        <v>0.02023416532239011</v>
       </c>
       <c r="T26">
-        <v>0.0351102170207559</v>
+        <v>0.01657640209401113</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H27">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I27">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J27">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N27">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O27">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P27">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q27">
-        <v>2007.273816657701</v>
+        <v>1337.358448616087</v>
       </c>
       <c r="R27">
-        <v>2007.273816657701</v>
+        <v>12036.22603754479</v>
       </c>
       <c r="S27">
-        <v>0.05040982537884326</v>
+        <v>0.03005804426390264</v>
       </c>
       <c r="T27">
-        <v>0.05040982537884326</v>
+        <v>0.03693660350743688</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H28">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I28">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J28">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N28">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O28">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P28">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q28">
-        <v>208.1731072347624</v>
+        <v>129.9877505693983</v>
       </c>
       <c r="R28">
-        <v>208.1731072347624</v>
+        <v>1169.889755124585</v>
       </c>
       <c r="S28">
-        <v>0.005227971339629702</v>
+        <v>0.002921563448021957</v>
       </c>
       <c r="T28">
-        <v>0.005227971339629702</v>
+        <v>0.003590141452782468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H29">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I29">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J29">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N29">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O29">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P29">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q29">
-        <v>284.684232922299</v>
+        <v>179.267214071506</v>
       </c>
       <c r="R29">
-        <v>284.684232922299</v>
+        <v>1613.404926643554</v>
       </c>
       <c r="S29">
-        <v>0.007149439379236563</v>
+        <v>0.004029153037619669</v>
       </c>
       <c r="T29">
-        <v>0.007149439379236563</v>
+        <v>0.004951194659063952</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H30">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I30">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J30">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N30">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O30">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P30">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q30">
-        <v>704.770971666878</v>
+        <v>443.1698333109337</v>
       </c>
       <c r="R30">
-        <v>704.770971666878</v>
+        <v>3988.528499798403</v>
       </c>
       <c r="S30">
-        <v>0.01769932000257017</v>
+        <v>0.009960544594361312</v>
       </c>
       <c r="T30">
-        <v>0.01769932000257017</v>
+        <v>0.0122399409346102</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10.374463</v>
+      </c>
+      <c r="H31">
+        <v>31.123389</v>
+      </c>
+      <c r="I31">
+        <v>0.0756109121296677</v>
+      </c>
+      <c r="J31">
+        <v>0.08118189713845646</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>36.0566465</v>
+      </c>
+      <c r="N31">
+        <v>72.113293</v>
+      </c>
+      <c r="O31">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P31">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q31">
+        <v>374.0683450183295</v>
+      </c>
+      <c r="R31">
+        <v>2244.410070109977</v>
+      </c>
+      <c r="S31">
+        <v>0.008407441463372006</v>
+      </c>
+      <c r="T31">
+        <v>0.006887614490551839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>16.959331</v>
+      </c>
+      <c r="H32">
+        <v>33.918662</v>
+      </c>
+      <c r="I32">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J32">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>86.777428</v>
+      </c>
+      <c r="N32">
+        <v>173.554856</v>
+      </c>
+      <c r="O32">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P32">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q32">
+        <v>1471.687124780668</v>
+      </c>
+      <c r="R32">
+        <v>5886.748499122672</v>
+      </c>
+      <c r="S32">
+        <v>0.03307717297860483</v>
+      </c>
+      <c r="T32">
+        <v>0.01806517213799742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>16.959331</v>
+      </c>
+      <c r="H33">
+        <v>33.918662</v>
+      </c>
+      <c r="I33">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J33">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N33">
+        <v>386.726074</v>
+      </c>
+      <c r="O33">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P33">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q33">
+        <v>2186.205165098831</v>
+      </c>
+      <c r="R33">
+        <v>13117.23099059299</v>
+      </c>
+      <c r="S33">
+        <v>0.0491364537985413</v>
+      </c>
+      <c r="T33">
+        <v>0.04025397651254385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16.959331</v>
+      </c>
+      <c r="H34">
+        <v>33.918662</v>
+      </c>
+      <c r="I34">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J34">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N34">
+        <v>37.588765</v>
+      </c>
+      <c r="O34">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P34">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q34">
+        <v>212.4934358387383</v>
+      </c>
+      <c r="R34">
+        <v>1274.96061503243</v>
+      </c>
+      <c r="S34">
+        <v>0.004775935058277779</v>
+      </c>
+      <c r="T34">
+        <v>0.003912581450211527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16.959331</v>
+      </c>
+      <c r="H35">
+        <v>33.918662</v>
+      </c>
+      <c r="I35">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J35">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.279662</v>
+      </c>
+      <c r="N35">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O35">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P35">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q35">
+        <v>293.0515074261219</v>
+      </c>
+      <c r="R35">
+        <v>1758.309044556732</v>
+      </c>
+      <c r="S35">
+        <v>0.0065865327212259</v>
+      </c>
+      <c r="T35">
+        <v>0.005395874406125739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.6178218242957</v>
-      </c>
-      <c r="H31">
-        <v>16.6178218242957</v>
-      </c>
-      <c r="I31">
-        <v>0.1305697330695756</v>
-      </c>
-      <c r="J31">
-        <v>0.1305697330695756</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="N31">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="O31">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="P31">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="Q31">
-        <v>596.2097713431583</v>
-      </c>
-      <c r="R31">
-        <v>596.2097713431583</v>
-      </c>
-      <c r="S31">
-        <v>0.01497295994853995</v>
-      </c>
-      <c r="T31">
-        <v>0.01497295994853995</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.959331</v>
+      </c>
+      <c r="H36">
+        <v>33.918662</v>
+      </c>
+      <c r="I36">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J36">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N36">
+        <v>128.152127</v>
+      </c>
+      <c r="O36">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P36">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q36">
+        <v>724.4581133823456</v>
+      </c>
+      <c r="R36">
+        <v>4346.748680294073</v>
+      </c>
+      <c r="S36">
+        <v>0.01628269074900881</v>
+      </c>
+      <c r="T36">
+        <v>0.01333924205558101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.959331</v>
+      </c>
+      <c r="H37">
+        <v>33.918662</v>
+      </c>
+      <c r="I37">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J37">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>36.0566465</v>
+      </c>
+      <c r="N37">
+        <v>72.113293</v>
+      </c>
+      <c r="O37">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P37">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q37">
+        <v>611.4966027434914</v>
+      </c>
+      <c r="R37">
+        <v>2445.986410973966</v>
+      </c>
+      <c r="S37">
+        <v>0.01374380366872485</v>
+      </c>
+      <c r="T37">
+        <v>0.007506209169294833</v>
       </c>
     </row>
   </sheetData>
